--- a/Data/Suppliers.xlsx
+++ b/Data/Suppliers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomas/work/toconline/app/json_templates/reports/company/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\Documents\GitHub\SIO2324grupo3\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94B6E41-FF95-6742-905E-62124AFC5816}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B598686B-DD60-4165-827F-94311526588D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="76">
   <si>
     <t>Tax country region</t>
   </si>
@@ -52,54 +52,12 @@
     <t>País/Região</t>
   </si>
   <si>
-    <t>$P{report_title}</t>
-  </si>
-  <si>
-    <t>$P{filter_name_supplier}</t>
-  </si>
-  <si>
-    <t>$P{filter_value_from_supplier} a $P{filter_value_to_supplier}</t>
-  </si>
-  <si>
-    <t>$F{tax_country_region}</t>
-  </si>
-  <si>
-    <t>$F{tax_registration_number}</t>
-  </si>
-  <si>
-    <t>$F{business_name}</t>
-  </si>
-  <si>
-    <t>$F{mobile_number}</t>
-  </si>
-  <si>
-    <t>$F{email}</t>
-  </si>
-  <si>
-    <t>$F{accounting_number}</t>
-  </si>
-  <si>
-    <t>$F{address}</t>
-  </si>
-  <si>
-    <t>$F{postcode}</t>
-  </si>
-  <si>
-    <t>$F{city}</t>
-  </si>
-  <si>
-    <t>$F{country}</t>
-  </si>
-  <si>
     <t>Listagem de Fornecedores</t>
   </si>
   <si>
     <t>Fornecedores</t>
   </si>
   <si>
-    <t>000000000 a $P{filter_value_to_supplier}</t>
-  </si>
-  <si>
     <t>000000000 a zzzzzzzzz</t>
   </si>
   <si>
@@ -287,17 +245,15 @@
   </si>
   <si>
     <t>Barcelona</t>
+  </si>
+  <si>
+    <t>CompanyId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="€# ##0.00"/>
-    <numFmt numFmtId="165" formatCode="€# ##0.0000"/>
-    <numFmt numFmtId="166" formatCode="dd/MM/yyyy"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -348,27 +304,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -409,9 +356,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F8B487E-100B-2943-A671-B3730128044E}" name="lines" displayName="lines" ref="A7:J16" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A7:J16" xr:uid="{24D4D156-518C-6E47-8C67-958AA30E0240}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F8B487E-100B-2943-A671-B3730128044E}" name="lines" displayName="lines" ref="A7:K24" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A7:K24" xr:uid="{24D4D156-518C-6E47-8C67-958AA30E0240}"/>
+  <tableColumns count="11">
+    <tableColumn id="11" xr3:uid="{849DD231-C5D6-4D36-9AAE-4F73725AE95E}" name="CompanyId"/>
     <tableColumn id="1" xr3:uid="{2AFB95EE-DAA3-FF47-9649-F2B65D3AC675}" name="Tax country region"/>
     <tableColumn id="2" xr3:uid="{368B6EDE-FC15-D14E-B2A0-A6EFAC77D5ED}" name="NIF"/>
     <tableColumn id="3" xr3:uid="{324C2ABC-AE6D-C041-A560-D992D3EFD07E}" name="Nome"/>
@@ -428,9 +376,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -468,7 +416,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -574,7 +522,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -716,7 +664,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -724,348 +672,640 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J16"/>
+  <dimension ref="A2:K24"/>
   <sheetViews>
-    <sheetView tabSelected="true" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D7" sqref="A7:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.1640625" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.83203125" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="71.5" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.5" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.33203125" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.1640625" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="101.1640625" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.1640625" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="37.33203125" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.1640625" collapsed="false"/>
+    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" t="s" s="13">
+      <c r="B17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>2</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s" s="13">
+      <c r="J18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s" s="13">
+      <c r="K18" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>2</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s" s="13">
+      <c r="D19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E8" t="s" s="13">
+      <c r="E19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" t="s" s="13">
+      <c r="F19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H8" t="s" s="13">
+      <c r="G19" s="6"/>
+      <c r="H19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I8" t="s" s="13">
+      <c r="I19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J8" t="s" s="13">
+      <c r="J19" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="13">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s" s="13">
+      <c r="K19" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>2</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s" s="13">
+      <c r="D20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s" s="13">
+      <c r="E20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E9" t="s" s="13">
+      <c r="F20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" t="s" s="13">
+      <c r="G20" s="6"/>
+      <c r="H20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H9" t="s" s="13">
+      <c r="I20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I9" t="s" s="13">
+      <c r="K20" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>2</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J9" t="s" s="13">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="13">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s" s="13">
+      <c r="D21" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C10" t="s" s="13">
+      <c r="E21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D10" t="s" s="13">
+      <c r="F21" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E10" t="s" s="13">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" t="s" s="13">
+      <c r="I21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H10" t="s" s="13">
+      <c r="J21" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I10" t="s" s="13">
-        <v>49</v>
-      </c>
-      <c r="J10" t="s" s="13">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="13">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s" s="13">
-        <v>50</v>
-      </c>
-      <c r="C11" t="s" s="13">
+      <c r="K21" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>2</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D11" t="s" s="13">
+      <c r="F22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>2</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E11" t="s" s="13">
+      <c r="C23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" t="s" s="13">
-        <v>54</v>
-      </c>
-      <c r="H11" t="s" s="13">
-        <v>48</v>
-      </c>
-      <c r="I11" t="s" s="13">
-        <v>55</v>
-      </c>
-      <c r="J11" t="s" s="13">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="13">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s" s="13">
-        <v>56</v>
-      </c>
-      <c r="C12" t="s" s="13">
-        <v>57</v>
-      </c>
-      <c r="D12" t="s" s="13">
-        <v>58</v>
-      </c>
-      <c r="E12" t="s" s="13">
-        <v>59</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" t="s" s="13">
+      <c r="D23" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K23" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H12" t="s" s="13">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>2</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I12" t="s" s="13">
-        <v>62</v>
-      </c>
-      <c r="J12" t="s" s="13">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="13">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s" s="13">
-        <v>63</v>
-      </c>
-      <c r="C13" t="s" s="13">
-        <v>64</v>
-      </c>
-      <c r="D13" t="s" s="13">
-        <v>65</v>
-      </c>
-      <c r="E13" t="s" s="13">
-        <v>65</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" t="s" s="13">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="13">
-        <v>66</v>
-      </c>
-      <c r="B14" t="s" s="13">
-        <v>67</v>
-      </c>
-      <c r="C14" t="s" s="13">
-        <v>68</v>
-      </c>
-      <c r="D14" t="s" s="13">
-        <v>65</v>
-      </c>
-      <c r="E14" t="s" s="13">
+      <c r="D24" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F14" t="s" s="13">
+      <c r="E24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G14" t="s" s="13">
+      <c r="G24" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H14" t="s" s="13">
+      <c r="H24" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I14" t="s" s="13">
+      <c r="I24" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="J14" t="s" s="13">
+      <c r="J24" s="6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="13">
-        <v>66</v>
-      </c>
-      <c r="B15" t="s" s="13">
-        <v>75</v>
-      </c>
-      <c r="C15" t="s" s="13">
-        <v>76</v>
-      </c>
-      <c r="D15" t="s" s="13">
-        <v>65</v>
-      </c>
-      <c r="E15" t="s" s="13">
-        <v>77</v>
-      </c>
-      <c r="F15" t="s" s="13">
-        <v>78</v>
-      </c>
-      <c r="G15" t="s" s="13">
-        <v>79</v>
-      </c>
-      <c r="H15" t="s" s="13">
-        <v>80</v>
-      </c>
-      <c r="I15" t="s" s="13">
-        <v>81</v>
-      </c>
-      <c r="J15" t="s" s="13">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="13">
-        <v>66</v>
-      </c>
-      <c r="B16" t="s" s="13">
-        <v>82</v>
-      </c>
-      <c r="C16" t="s" s="13">
-        <v>83</v>
-      </c>
-      <c r="D16" t="s" s="13">
-        <v>65</v>
-      </c>
-      <c r="E16" t="s" s="13">
-        <v>84</v>
-      </c>
-      <c r="F16" t="s" s="13">
-        <v>85</v>
-      </c>
-      <c r="G16" t="s" s="13">
-        <v>86</v>
-      </c>
-      <c r="H16" t="s" s="13">
-        <v>87</v>
-      </c>
-      <c r="I16" t="s" s="13">
-        <v>88</v>
-      </c>
-      <c r="J16" t="s" s="13">
-        <v>74</v>
+      <c r="K24" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
